--- a/com.verizon/src/test/resources/test_data.xlsx
+++ b/com.verizon/src/test/resources/test_data.xlsx
@@ -5,15 +5,24 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zainj\IdeaProjects\SeleniumBootcampWinterWeekend2022\com.espn\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zainj\IdeaProjects\SeleniumBootcampWinterWeekend2022\com.verizon\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EDD99E5-8B2E-40FC-A02B-7A2D6DC00663}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FD4823D-8D1F-47D4-8CE5-BA43D4FA45D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{723F212A-670C-4A3B-B8E6-389E6F040CFB}"/>
+    <workbookView xWindow="4600" yWindow="1080" windowWidth="19200" windowHeight="10060" firstSheet="6" activeTab="9" xr2:uid="{723F212A-670C-4A3B-B8E6-389E6F040CFB}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="NFLTeams" sheetId="1" r:id="rId1"/>
+    <sheet name="PhoneAccessories" sheetId="2" r:id="rId2"/>
+    <sheet name="TabletAccessories" sheetId="3" r:id="rId3"/>
+    <sheet name="ChargingAccessories" sheetId="4" r:id="rId4"/>
+    <sheet name="AudioAccessories" sheetId="5" r:id="rId5"/>
+    <sheet name="ConsoleAccessories" sheetId="6" r:id="rId6"/>
+    <sheet name="WatchAccessories" sheetId="7" r:id="rId7"/>
+    <sheet name="HomeAccessories" sheetId="8" r:id="rId8"/>
+    <sheet name="HealthAccessories" sheetId="9" r:id="rId9"/>
+    <sheet name="EntertainmentAccessories" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="64">
   <si>
     <t>Team Name</t>
   </si>
@@ -134,6 +143,99 @@
   </si>
   <si>
     <t>Tennessee Titans</t>
+  </si>
+  <si>
+    <t>Cases</t>
+  </si>
+  <si>
+    <t>Categories</t>
+  </si>
+  <si>
+    <t>Magsafe</t>
+  </si>
+  <si>
+    <t>Case bundles</t>
+  </si>
+  <si>
+    <t>Screen protectors</t>
+  </si>
+  <si>
+    <t>MagSafe</t>
+  </si>
+  <si>
+    <t>Keyboards</t>
+  </si>
+  <si>
+    <t>Chargers</t>
+  </si>
+  <si>
+    <t>Car chargers/mounts</t>
+  </si>
+  <si>
+    <t>Batteries</t>
+  </si>
+  <si>
+    <t>Adapters &amp; cables</t>
+  </si>
+  <si>
+    <t>Headphones</t>
+  </si>
+  <si>
+    <t>Headsets</t>
+  </si>
+  <si>
+    <t>Speakers</t>
+  </si>
+  <si>
+    <t>Soundbars</t>
+  </si>
+  <si>
+    <t>Console Gaming</t>
+  </si>
+  <si>
+    <t>PC Gaming</t>
+  </si>
+  <si>
+    <t>Mobile Gaming</t>
+  </si>
+  <si>
+    <t>VR Gaming</t>
+  </si>
+  <si>
+    <t>Gaming headsets</t>
+  </si>
+  <si>
+    <t>Bands</t>
+  </si>
+  <si>
+    <t>Smart watches</t>
+  </si>
+  <si>
+    <t>Smart devices</t>
+  </si>
+  <si>
+    <t>Signal boosters</t>
+  </si>
+  <si>
+    <t>Streaming TVs</t>
+  </si>
+  <si>
+    <t>Computer</t>
+  </si>
+  <si>
+    <t>Fitness trackers</t>
+  </si>
+  <si>
+    <t>Face masks</t>
+  </si>
+  <si>
+    <t>UV sanitizers</t>
+  </si>
+  <si>
+    <t>Cameras</t>
+  </si>
+  <si>
+    <t>Microphones</t>
   </si>
 </sst>
 </file>
@@ -487,7 +589,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DADF1CD2-1FEB-4105-B7FC-B561B248CD13}">
   <dimension ref="A1:A33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
@@ -661,4 +763,354 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0EBDC25-56A2-4225-BD97-5E88A9F75798}">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30864E56-173E-40A1-AA5A-7A22EC52BECA}">
+  <dimension ref="A1:A5"/>
+  <sheetViews>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F626ED0-29AD-4AB4-B7E6-0062F97010C1}">
+  <dimension ref="A1:A5"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E8DC0AF-C826-48C9-B049-71BBCA936897}">
+  <dimension ref="A1:A5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D79E1D2-A655-4A9E-914D-45344DB3CA8E}">
+  <dimension ref="A1:A5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1356FC5E-A82D-42DF-9830-83CF3BA3E250}">
+  <dimension ref="A1:A6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{645BD766-114D-4020-9AC9-9644B7DEDA03}">
+  <dimension ref="A1:A5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7F36AC6-204E-44A7-AE38-70CF88604EFF}">
+  <dimension ref="A1:A5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1870E630-9E3A-4BEB-8983-D33FEDE70C95}">
+  <dimension ref="A1:A4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>